--- a/result.xlsx
+++ b/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StatisticalGenetics\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StatisticalGenetics\Desktop\しょるい\学会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C44A66-5E49-4944-8BB7-63343DE86F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5BD339-FB59-407F-8E99-7378F9D1B368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="600" windowWidth="17430" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="120">
   <si>
     <t>Zhou</t>
     <phoneticPr fontId="2"/>
@@ -948,6 +948,24 @@
     <t>ULMS_HPOセマンティックマッピング</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve"> -73のHPOでの割合</t>
+    <rPh sb="10" eb="12">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -77のHPOでの割合</t>
+    <rPh sb="10" eb="12">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>二項分布のp</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -961,7 +979,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.00000000;[Red]\-#,##0.00000000"/>
     <numFmt numFmtId="181" formatCode="#,##0.0000000_);[Red]\(#,##0.0000000\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,6 +1063,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1136,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1183,9 +1208,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1223,9 +1245,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1260,6 +1279,28 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1545,11 +1586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FAE776-436D-4467-8193-603C4B5BE8DD}">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1564,36 +1605,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="25"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="29" customFormat="1" ht="20.25" customHeight="1">
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
+    <row r="5" spans="1:7" s="28" customFormat="1" ht="20.25" customHeight="1">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="2"/>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1601,7 +1642,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1">
@@ -1618,7 +1659,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -1633,20 +1674,20 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>31849086</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1654,7 +1695,7 @@
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
@@ -1671,7 +1712,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -1686,38 +1727,38 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>7109429</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>12890258</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="1">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>0.35499999999999998</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <f>F13/F9</f>
         <v>0.40472929113256184</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="1">
         <v>8</v>
       </c>
@@ -1732,7 +1773,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="21"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="1">
         <v>9</v>
       </c>
@@ -1747,22 +1788,22 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="1">
         <v>10</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>849103</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>1509847</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="1">
         <v>11</v>
       </c>
@@ -1777,7 +1818,7 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="21"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="1">
         <v>12</v>
       </c>
@@ -1794,7 +1835,7 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="21"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="1">
         <v>13</v>
       </c>
@@ -1809,7 +1850,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="1">
         <v>14</v>
       </c>
@@ -1826,38 +1867,38 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="1">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <f>F17/F9</f>
         <v>4.7406289775474245E-2</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="21"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="1">
         <v>16</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="40">
         <v>147978</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="22">
         <v>211838</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="21"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="1">
         <v>17</v>
       </c>
@@ -1872,7 +1913,7 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="21"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="1">
         <v>18</v>
       </c>
@@ -1889,7 +1930,7 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="21"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="1">
         <v>19</v>
       </c>
@@ -1904,7 +1945,7 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="1">
         <v>20</v>
       </c>
@@ -1924,7 +1965,7 @@
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="1">
@@ -1941,7 +1982,7 @@
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="21"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="1">
         <v>22</v>
       </c>
@@ -1958,7 +1999,7 @@
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="1">
         <v>23</v>
       </c>
@@ -1973,7 +2014,7 @@
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="21"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="1">
         <v>24</v>
       </c>
@@ -1988,22 +2029,22 @@
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="21"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="1">
         <v>25</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="40">
         <v>62820</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="22">
         <v>118834</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="21"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="1">
         <v>26</v>
       </c>
@@ -2020,7 +2061,7 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="21"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="1">
         <v>27</v>
       </c>
@@ -2030,14 +2071,14 @@
       <c r="E35" s="4">
         <v>3973</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="26">
         <v>4716</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="21"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="1">
         <v>28</v>
       </c>
@@ -2047,13 +2088,13 @@
       <c r="E36" s="4">
         <v>322</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="26">
         <v>384</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="21"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="1">
         <v>29</v>
       </c>
@@ -2073,7 +2114,7 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="1">
@@ -2091,7 +2132,7 @@
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="21"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="1">
         <v>31</v>
       </c>
@@ -2106,7 +2147,7 @@
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="21"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="1">
         <v>32</v>
       </c>
@@ -2121,7 +2162,7 @@
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="21"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="1">
         <v>33</v>
       </c>
@@ -2137,12 +2178,12 @@
     </row>
     <row r="43" spans="2:8">
       <c r="D43" s="9"/>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="1">
@@ -2151,48 +2192,48 @@
       <c r="D44" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <f>E39</f>
         <v>7488851</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="43">
         <f>F39</f>
         <v>7804331</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="43">
         <v>9798961</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="21"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="1">
         <v>35</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="30">
         <v>4219</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="43">
         <v>4716</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="43">
         <v>4716</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="21"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="1">
         <v>36</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="34">
         <f>F45/2</f>
         <v>2358</v>
       </c>
@@ -2202,7 +2243,7 @@
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="21"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="1">
         <v>37</v>
       </c>
@@ -2212,7 +2253,7 @@
       <c r="E47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="34">
         <v>3934</v>
       </c>
       <c r="G47" s="4">
@@ -2220,17 +2261,17 @@
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="21"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="1">
         <v>38</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>0.94</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="35">
         <f>F47/F45</f>
         <v>0.83418150975402883</v>
       </c>
@@ -2241,81 +2282,81 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="21"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="1">
         <v>39</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="41" t="s">
         <v>111</v>
       </c>
       <c r="I49" s="15"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="21"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="1">
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="29">
         <v>4214</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="42">
         <v>4709</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="42">
         <v>4710</v>
       </c>
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="21"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="1">
         <v>41</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="42" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="21"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="1">
         <v>42</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="29">
         <v>8</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="42">
         <v>34</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="41">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="1">
@@ -2332,7 +2373,7 @@
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="21"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="1">
         <v>44</v>
       </c>
@@ -2347,7 +2388,7 @@
       </c>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="21"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="1">
         <v>45</v>
       </c>
@@ -2362,7 +2403,7 @@
       </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="21"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="1">
         <v>46</v>
       </c>
@@ -2377,7 +2418,7 @@
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="21"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="1">
         <v>47</v>
       </c>
@@ -2392,7 +2433,7 @@
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="21"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="1">
         <v>48</v>
       </c>
@@ -2407,7 +2448,7 @@
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="21"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="1">
         <v>49</v>
       </c>
@@ -2422,7 +2463,7 @@
       </c>
     </row>
     <row r="61" spans="2:9">
-      <c r="B61" s="21"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="1">
         <v>50</v>
       </c>
@@ -2437,7 +2478,7 @@
       </c>
     </row>
     <row r="62" spans="2:9">
-      <c r="B62" s="21"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="1">
         <v>51</v>
       </c>
@@ -2452,7 +2493,7 @@
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="B63" s="21"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="1">
         <v>52</v>
       </c>
@@ -2467,7 +2508,7 @@
       </c>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="21"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="1">
         <v>53</v>
       </c>
@@ -2477,12 +2518,12 @@
       <c r="E64" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="41">
+      <c r="F64" s="39">
         <v>13144</v>
       </c>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="21"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="1">
         <v>54</v>
       </c>
@@ -2492,12 +2533,12 @@
       <c r="E65" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="F65" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="21"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="1">
         <v>55</v>
       </c>
@@ -2507,12 +2548,12 @@
       <c r="E66" s="8">
         <v>7908</v>
       </c>
-      <c r="F66" s="41">
+      <c r="F66" s="39">
         <v>1154</v>
       </c>
     </row>
     <row r="67" spans="2:9">
-      <c r="B67" s="21"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="1">
         <v>56</v>
       </c>
@@ -2522,12 +2563,12 @@
       <c r="E67" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F67" s="41">
+      <c r="F67" s="39">
         <v>633</v>
       </c>
     </row>
     <row r="68" spans="2:9">
-      <c r="B68" s="21"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="1">
         <v>57</v>
       </c>
@@ -2537,12 +2578,12 @@
       <c r="E68" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="41">
+      <c r="F68" s="39">
         <v>1154</v>
       </c>
     </row>
     <row r="69" spans="2:9">
-      <c r="B69" s="21"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="1">
         <v>58</v>
       </c>
@@ -2552,12 +2593,12 @@
       <c r="E69" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F69" s="41">
+      <c r="F69" s="39">
         <v>14281</v>
       </c>
     </row>
     <row r="70" spans="2:9">
-      <c r="B70" s="21"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="1">
         <v>59</v>
       </c>
@@ -2567,12 +2608,12 @@
       <c r="E70" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="41">
+      <c r="F70" s="39">
         <v>216</v>
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="B71" s="21"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="1">
         <v>60</v>
       </c>
@@ -2582,12 +2623,12 @@
       <c r="E71" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F71" s="41">
+      <c r="F71" s="39">
         <v>7238</v>
       </c>
     </row>
     <row r="72" spans="2:9">
-      <c r="B72" s="21"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="1">
         <v>61</v>
       </c>
@@ -2597,12 +2638,12 @@
       <c r="E72" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="39">
         <v>176</v>
       </c>
     </row>
     <row r="73" spans="2:9">
-      <c r="B73" s="21"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="1">
         <v>62</v>
       </c>
@@ -2612,13 +2653,13 @@
       <c r="E73" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="41">
+      <c r="F73" s="39">
         <v>3509</v>
       </c>
       <c r="I73" s="14"/>
     </row>
     <row r="74" spans="2:9" ht="37.5">
-      <c r="B74" s="21"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="1">
         <v>63</v>
       </c>
@@ -2628,12 +2669,12 @@
       <c r="E74" s="8">
         <v>5099</v>
       </c>
-      <c r="F74" s="41">
+      <c r="F74" s="39">
         <v>1126</v>
       </c>
     </row>
     <row r="75" spans="2:9">
-      <c r="B75" s="21"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="1">
         <v>64</v>
       </c>
@@ -2643,12 +2684,12 @@
       <c r="E75" s="8">
         <v>409</v>
       </c>
-      <c r="F75" s="41">
+      <c r="F75" s="39">
         <v>137</v>
       </c>
     </row>
     <row r="76" spans="2:9">
-      <c r="B76" s="21"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="1">
         <v>65</v>
       </c>
@@ -2658,12 +2699,12 @@
       <c r="E76" s="8">
         <v>2111</v>
       </c>
-      <c r="F76" s="41">
+      <c r="F76" s="39">
         <v>468</v>
       </c>
     </row>
     <row r="77" spans="2:9">
-      <c r="B77" s="21"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="1">
         <v>66</v>
       </c>
@@ -2673,12 +2714,12 @@
       <c r="E77" s="8">
         <v>940</v>
       </c>
-      <c r="F77" s="41">
+      <c r="F77" s="39">
         <v>317</v>
       </c>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="21"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="1">
         <v>67</v>
       </c>
@@ -2688,12 +2729,12 @@
       <c r="E78" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F78" s="41">
+      <c r="F78" s="39">
         <v>930</v>
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="21"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="1">
         <v>68</v>
       </c>
@@ -2708,7 +2749,7 @@
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="21"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="1">
         <v>69</v>
       </c>
@@ -2723,22 +2764,22 @@
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="21"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="1">
         <v>70</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="22">
         <v>4219</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="22">
         <v>4716</v>
       </c>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="21"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="1">
         <v>71</v>
       </c>
@@ -2753,562 +2794,596 @@
       </c>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="21"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="1">
         <v>72</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="22">
         <v>940</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="22">
         <v>310</v>
       </c>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="21"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="1">
         <v>73</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="22">
         <v>898</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="22">
         <v>303</v>
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="21"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="1">
         <v>74</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" s="23">
+        <f>E84/E83</f>
+        <v>0.9553191489361702</v>
+      </c>
+      <c r="F85" s="23">
+        <f>F84/F83</f>
+        <v>0.97741935483870968</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="20"/>
+      <c r="C86" s="1">
+        <v>75</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="22">
         <f>E84*(E84-1)/2</f>
         <v>402753</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="22">
         <f>F84*(F84-1)/2</f>
         <v>45753</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="21"/>
-      <c r="C86" s="1">
-        <v>75</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E86" s="4">
-        <v>372509</v>
-      </c>
-      <c r="F86" s="4">
-        <v>33371</v>
-      </c>
-    </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="21"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="1">
         <v>76</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="4">
-        <v>111923</v>
-      </c>
-      <c r="F87" s="4">
-        <v>9480</v>
+        <v>68</v>
+      </c>
+      <c r="E87" s="22">
+        <v>372509</v>
+      </c>
+      <c r="F87" s="22">
+        <v>33371</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="21"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="1">
         <v>77</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E88" s="4">
-        <v>107098</v>
-      </c>
-      <c r="F88" s="4">
-        <v>7931</v>
+        <v>65</v>
+      </c>
+      <c r="E88" s="22">
+        <v>111923</v>
+      </c>
+      <c r="F88" s="22">
+        <v>9480</v>
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="21"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="1">
         <v>78</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E89" s="34">
-        <f>E86/E85</f>
-        <v>0.9249068287511204</v>
-      </c>
-      <c r="F89" s="34">
-        <f>F86/F85</f>
-        <v>0.72937293729372932</v>
+        <v>67</v>
+      </c>
+      <c r="E89" s="22">
+        <v>107098</v>
+      </c>
+      <c r="F89" s="22">
+        <v>7931</v>
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="21"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="1">
         <v>79</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E90" s="34">
-        <f>E87/E85</f>
-        <v>0.27789488843037791</v>
-      </c>
-      <c r="F90" s="34">
-        <f>F87/F85</f>
-        <v>0.20719952789980986</v>
+        <v>118</v>
+      </c>
+      <c r="E90" s="23">
+        <f>E89/E82</f>
+        <v>0.87824839066792404</v>
+      </c>
+      <c r="F90" s="23">
+        <f>F89/F82</f>
+        <v>0.81235276042200144</v>
       </c>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="21"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="1">
         <v>80</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="4">
-        <f>E85*E89*E90</f>
-        <v>103518.34699431165</v>
-      </c>
-      <c r="F91" s="4">
-        <f>F85*F89*F90</f>
-        <v>6914.455445544555</v>
+        <v>70</v>
+      </c>
+      <c r="E91" s="32">
+        <f>E87/E86</f>
+        <v>0.9249068287511204</v>
+      </c>
+      <c r="F91" s="32">
+        <f>F87/F86</f>
+        <v>0.72937293729372932</v>
       </c>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="21"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="1">
         <v>81</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E92" s="4">
-        <f>E85</f>
-        <v>402753</v>
-      </c>
-      <c r="F92" s="4">
-        <f>F85</f>
-        <v>45753</v>
+        <v>71</v>
+      </c>
+      <c r="E92" s="32">
+        <f>E88/E86</f>
+        <v>0.27789488843037791</v>
+      </c>
+      <c r="F92" s="32">
+        <f>F88/F86</f>
+        <v>0.20719952789980986</v>
       </c>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="21"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="1">
         <v>82</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E93" s="35">
-        <f>E91/E92</f>
-        <v>0.25702687998428725</v>
-      </c>
-      <c r="F93" s="35">
-        <f>F91/F92</f>
-        <v>0.15112572827015835</v>
+        <v>69</v>
+      </c>
+      <c r="E93" s="22">
+        <f>E86*E91*E92</f>
+        <v>103518.34699431165</v>
+      </c>
+      <c r="F93" s="22">
+        <f>F86*F91*F92</f>
+        <v>6914.455445544555</v>
       </c>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="21"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="1">
         <v>83</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="4">
+        <f>E86</f>
+        <v>402753</v>
+      </c>
+      <c r="F94" s="4">
+        <f>F86</f>
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="20"/>
+      <c r="C95" s="1">
+        <v>84</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" s="33">
+        <f>E93/E94</f>
+        <v>0.25702687998428725</v>
+      </c>
+      <c r="F95" s="33">
+        <f>F93/F94</f>
+        <v>0.15112572827015835</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="20"/>
+      <c r="C96" s="1">
+        <v>85</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E94" s="33">
+      <c r="E96" s="44">
         <v>3.86100069365736E-38</v>
       </c>
-      <c r="F94" s="33">
+      <c r="F96" s="31">
         <v>5.1630076789569301E-39</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="40"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="21" t="s">
+    <row r="97" spans="2:6">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="38"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C96" s="1">
-        <v>84</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="8">
-        <v>9256</v>
-      </c>
-      <c r="F96" s="41">
-        <v>11475</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="21"/>
-      <c r="C97" s="1">
-        <v>85</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E97" s="8">
-        <v>33977</v>
-      </c>
-      <c r="F97" s="41">
-        <v>273774</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="21"/>
       <c r="C98" s="1">
         <v>86</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E98" s="8">
-        <v>463</v>
-      </c>
-      <c r="F98" s="41">
-        <v>216</v>
+        <v>9256</v>
+      </c>
+      <c r="F98" s="39">
+        <v>11475</v>
       </c>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="21"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="1">
         <v>87</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="8">
+        <v>33977</v>
+      </c>
+      <c r="F99" s="39">
+        <v>273774</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="20"/>
+      <c r="C100" s="1">
+        <v>88</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E100" s="8">
+        <v>463</v>
+      </c>
+      <c r="F100" s="39">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="20"/>
+      <c r="C101" s="1">
+        <v>89</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E101" s="8">
         <v>213</v>
       </c>
-      <c r="F99" s="41">
+      <c r="F101" s="39">
         <v>218</v>
       </c>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="40"/>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="E101" s="9"/>
-      <c r="F101" s="40"/>
     </row>
     <row r="102" spans="2:6">
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="40"/>
+      <c r="F102" s="38"/>
     </row>
     <row r="103" spans="2:6">
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="40"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="47"/>
     </row>
     <row r="104" spans="2:6">
       <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="40"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
     </row>
     <row r="105" spans="2:6">
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="40"/>
+      <c r="F105" s="38"/>
     </row>
     <row r="106" spans="2:6">
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="40"/>
+      <c r="F106" s="38"/>
     </row>
     <row r="107" spans="2:6">
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="40"/>
+      <c r="F107" s="38"/>
     </row>
     <row r="108" spans="2:6">
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="40"/>
+      <c r="F108" s="38"/>
     </row>
     <row r="109" spans="2:6">
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="40"/>
+      <c r="F109" s="38"/>
     </row>
     <row r="110" spans="2:6">
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="40"/>
+      <c r="F110" s="38"/>
     </row>
     <row r="111" spans="2:6">
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="40"/>
+      <c r="F111" s="38"/>
     </row>
     <row r="112" spans="2:6">
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="40"/>
+      <c r="F112" s="38"/>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="40"/>
+      <c r="F113" s="38"/>
     </row>
     <row r="114" spans="4:6">
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="40"/>
+      <c r="F114" s="38"/>
     </row>
     <row r="115" spans="4:6">
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="40"/>
+      <c r="F115" s="38"/>
     </row>
     <row r="116" spans="4:6">
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="40"/>
+      <c r="F116" s="38"/>
     </row>
     <row r="117" spans="4:6">
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="40"/>
+      <c r="F117" s="38"/>
     </row>
     <row r="118" spans="4:6">
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="40"/>
+      <c r="F118" s="38"/>
     </row>
     <row r="119" spans="4:6">
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="40"/>
+      <c r="F119" s="38"/>
     </row>
     <row r="120" spans="4:6">
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="40"/>
+      <c r="F120" s="38"/>
     </row>
     <row r="121" spans="4:6">
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="40"/>
+      <c r="F121" s="38"/>
     </row>
     <row r="122" spans="4:6">
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="40"/>
+      <c r="F122" s="38"/>
     </row>
     <row r="123" spans="4:6">
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="40"/>
+      <c r="F123" s="38"/>
     </row>
     <row r="124" spans="4:6">
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="40"/>
+      <c r="F124" s="38"/>
     </row>
     <row r="125" spans="4:6">
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="40"/>
+      <c r="F125" s="38"/>
     </row>
     <row r="126" spans="4:6">
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="40"/>
+      <c r="F126" s="38"/>
     </row>
     <row r="127" spans="4:6">
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="40"/>
+      <c r="F127" s="38"/>
     </row>
     <row r="128" spans="4:6">
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="40"/>
+      <c r="F128" s="38"/>
     </row>
     <row r="129" spans="4:6">
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="40"/>
+      <c r="F129" s="38"/>
     </row>
     <row r="130" spans="4:6">
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="40"/>
+      <c r="F130" s="38"/>
     </row>
     <row r="131" spans="4:6">
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="40"/>
+      <c r="F131" s="38"/>
     </row>
     <row r="132" spans="4:6">
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="40"/>
+      <c r="F132" s="38"/>
     </row>
     <row r="133" spans="4:6">
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="40"/>
+      <c r="F133" s="38"/>
     </row>
     <row r="134" spans="4:6">
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="40"/>
+      <c r="F134" s="38"/>
     </row>
     <row r="135" spans="4:6">
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="40"/>
+      <c r="F135" s="38"/>
     </row>
     <row r="136" spans="4:6">
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="40"/>
+      <c r="F136" s="38"/>
     </row>
     <row r="137" spans="4:6">
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="40"/>
+      <c r="F137" s="38"/>
     </row>
     <row r="138" spans="4:6">
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="40"/>
+      <c r="F138" s="38"/>
     </row>
     <row r="139" spans="4:6">
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="40"/>
+      <c r="F139" s="38"/>
     </row>
     <row r="140" spans="4:6">
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="40"/>
+      <c r="F140" s="38"/>
     </row>
     <row r="141" spans="4:6">
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="40"/>
+      <c r="F141" s="38"/>
     </row>
     <row r="142" spans="4:6">
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="40"/>
+      <c r="F142" s="38"/>
     </row>
     <row r="143" spans="4:6">
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="40"/>
+      <c r="F143" s="38"/>
     </row>
     <row r="144" spans="4:6">
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="40"/>
+      <c r="F144" s="38"/>
     </row>
     <row r="145" spans="4:6">
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="40"/>
+      <c r="F145" s="38"/>
     </row>
     <row r="146" spans="4:6">
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="40"/>
+      <c r="F146" s="38"/>
     </row>
     <row r="147" spans="4:6">
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="40"/>
+      <c r="F147" s="38"/>
     </row>
     <row r="148" spans="4:6">
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="40"/>
+      <c r="F148" s="38"/>
     </row>
     <row r="149" spans="4:6">
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="40"/>
+      <c r="F149" s="38"/>
     </row>
     <row r="150" spans="4:6">
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="40"/>
+      <c r="F150" s="38"/>
     </row>
     <row r="151" spans="4:6">
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="40"/>
+      <c r="F151" s="38"/>
     </row>
     <row r="152" spans="4:6">
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="40"/>
+      <c r="F152" s="38"/>
     </row>
     <row r="153" spans="4:6">
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="40"/>
+      <c r="F153" s="38"/>
     </row>
     <row r="154" spans="4:6">
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="40"/>
+      <c r="F154" s="38"/>
     </row>
     <row r="155" spans="4:6">
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="40"/>
+      <c r="F155" s="38"/>
     </row>
     <row r="156" spans="4:6">
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="40"/>
+      <c r="F156" s="38"/>
     </row>
     <row r="157" spans="4:6">
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="40"/>
+      <c r="F157" s="38"/>
     </row>
     <row r="158" spans="4:6">
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="40"/>
+      <c r="F158" s="38"/>
     </row>
     <row r="159" spans="4:6">
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="40"/>
+      <c r="F159" s="38"/>
+    </row>
+    <row r="160" spans="4:6">
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="38"/>
+    </row>
+    <row r="161" spans="4:6">
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
